--- a/output2.XLSX
+++ b/output2.XLSX
@@ -8,22 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitHub\Workshop-Network-ex2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C2F9845-1097-40A1-9409-37A00FAEF535}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AA1098F-08A5-4FFA-A5C5-989DDD6A2B3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ex2" sheetId="1" r:id="rId1"/>
     <sheet name="Ex1" sheetId="2" r:id="rId2"/>
     <sheet name="Both" sheetId="3" r:id="rId3"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId4"/>
-  </externalReferences>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">'Ex2'!$A$2:$A$22</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">'Ex2'!$B$2:$B$22</definedName>
-  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -197,6 +190,17 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Ex2'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Throughput RDMA (MB/s)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
@@ -761,71 +765,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Ex1'!$B$2:$B$22</c:f>
+              <c:f>'Ex1'!$B$1</c:f>
               <c:strCache>
-                <c:ptCount val="21"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.295072</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.047573</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.095659</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6.134969</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>13.570823</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.775175</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>47.619048</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>79.355239</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>166.992825</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>275.713516</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>350.444901</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>346.355488</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>556.521739</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>786.406835</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1069.033016</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1297.434273</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1250.019074</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1308.887557</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1327.05606</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1346.326983</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>1352.231827</c:v>
+                  <c:v>Throughput TCP (MB/s)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3770,191 +3714,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="Ex1"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="2">
-          <cell r="A2">
-            <v>1</v>
-          </cell>
-          <cell r="B2">
-            <v>0.295072</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="A3">
-            <v>2</v>
-          </cell>
-          <cell r="B3">
-            <v>4.7572999999999997E-2</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="A4">
-            <v>4</v>
-          </cell>
-          <cell r="B4">
-            <v>9.5658999999999994E-2</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="A5">
-            <v>8</v>
-          </cell>
-          <cell r="B5">
-            <v>6.1349689999999999</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="A6">
-            <v>16</v>
-          </cell>
-          <cell r="B6">
-            <v>13.570823000000001</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="A7">
-            <v>32</v>
-          </cell>
-          <cell r="B7">
-            <v>0.77517499999999995</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="A8">
-            <v>64</v>
-          </cell>
-          <cell r="B8">
-            <v>47.619047999999999</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="A9">
-            <v>128</v>
-          </cell>
-          <cell r="B9">
-            <v>79.355238999999997</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="A10">
-            <v>256</v>
-          </cell>
-          <cell r="B10">
-            <v>166.99282500000001</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="A11">
-            <v>512</v>
-          </cell>
-          <cell r="B11">
-            <v>275.71351600000003</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="A12">
-            <v>1024</v>
-          </cell>
-          <cell r="B12">
-            <v>350.44490100000002</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="A13">
-            <v>2048</v>
-          </cell>
-          <cell r="B13">
-            <v>346.35548799999998</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="A14">
-            <v>4096</v>
-          </cell>
-          <cell r="B14">
-            <v>556.52173900000003</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="A15">
-            <v>8192</v>
-          </cell>
-          <cell r="B15">
-            <v>786.406835</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="A16">
-            <v>16384</v>
-          </cell>
-          <cell r="B16">
-            <v>1069.0330160000001</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="A17">
-            <v>32768</v>
-          </cell>
-          <cell r="B17">
-            <v>1297.4342730000001</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="A18">
-            <v>65536</v>
-          </cell>
-          <cell r="B18">
-            <v>1250.019074</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="A19">
-            <v>131072</v>
-          </cell>
-          <cell r="B19">
-            <v>1308.887557</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="A20">
-            <v>262144</v>
-          </cell>
-          <cell r="B20">
-            <v>1327.0560599999999</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="A21">
-            <v>524288</v>
-          </cell>
-          <cell r="B21">
-            <v>1346.3269829999999</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="A22">
-            <v>1048576</v>
-          </cell>
-          <cell r="B22">
-            <v>1352.2318270000001</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -4417,8 +4176,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14881EF2-0BB8-4E44-8E14-398831080454}">
   <dimension ref="A1:B22"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="N35" sqref="N35"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4614,7 +4373,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C3FC208-DB4F-4DFB-A095-C1CDC288DB42}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>

--- a/output2.XLSX
+++ b/output2.XLSX
@@ -8,15 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitHub\Workshop-Network-ex2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AA1098F-08A5-4FFA-A5C5-989DDD6A2B3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E85595FC-32F5-4D5A-8BC3-F867971A74B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ex2" sheetId="1" r:id="rId1"/>
     <sheet name="Ex1" sheetId="2" r:id="rId2"/>
     <sheet name="Both" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">'Ex1'!$B$1</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">'Ex1'!$B$2:$B$22</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">'Ex2'!$A$2:$A$22</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">'Ex2'!$B$1</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">'Ex2'!$B$2:$B$22</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -185,7 +192,7 @@
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
-        <c:grouping val="stacked"/>
+        <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -758,7 +765,7 @@
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
-        <c:grouping val="stacked"/>
+        <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -1288,13 +1295,8 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Performance Measurements - RDMA (warm-up:</a:t>
+              <a:t>Performance Measurements Comparison </a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> 700)</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -1331,11 +1333,22 @@
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
-        <c:grouping val="stacked"/>
+        <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Ex2'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Throughput RDMA (MB/s)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
@@ -1507,7 +1520,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-9FE2-460E-A0BD-05B9A5809BC7}"/>
+              <c16:uniqueId val="{00000000-4543-46BF-A651-D850F0274BFF}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1624,7 +1637,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-9FE2-460E-A0BD-05B9A5809BC7}"/>
+              <c16:uniqueId val="{00000001-4543-46BF-A651-D850F0274BFF}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3673,25 +3686,30 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>1575289</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>65942</xdr:rowOff>
+      <xdr:colOff>1314450</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>313591</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>185005</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2">
+        <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FA8E12E6-61F6-469E-AC3D-46C31BAF5BF6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D1968927-F60B-4305-8C96-67FDC6D514A4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3705,7 +3723,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3980,7 +3998,7 @@
   <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+      <selection activeCell="B1" sqref="B1:B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4176,8 +4194,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14881EF2-0BB8-4E44-8E14-398831080454}">
   <dimension ref="A1:B22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4373,12 +4391,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C3FC208-DB4F-4DFB-A095-C1CDC288DB42}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.42578125" customWidth="1"/>
+    <col min="2" max="2" width="30" customWidth="1"/>
+    <col min="3" max="3" width="31" customWidth="1"/>
+  </cols>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/output2.XLSX
+++ b/output2.XLSX
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitHub\Workshop-Network-ex2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E85595FC-32F5-4D5A-8BC3-F867971A74B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4968BB5-23D7-4393-801F-CD9EAD3503B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,13 +17,6 @@
     <sheet name="Ex1" sheetId="2" r:id="rId2"/>
     <sheet name="Both" sheetId="3" r:id="rId3"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">'Ex1'!$B$1</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">'Ex1'!$B$2:$B$22</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">'Ex2'!$A$2:$A$22</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">'Ex2'!$B$1</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">'Ex2'!$B$2:$B$22</definedName>
-  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -39,10 +32,10 @@
     <t>Size of Packet (B)</t>
   </si>
   <si>
-    <t>Throughput TCP (MB/s)</t>
+    <t>Throughput TCP (Mbit/s)</t>
   </si>
   <si>
-    <t>Throughput RDMA (MB/s)</t>
+    <t>Throughput RDMA (Mbit/s)</t>
   </si>
 </sst>
 </file>
@@ -149,13 +142,8 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Performance Measurements - RDMA (warm-up:</a:t>
+              <a:t>Performance Measurements - RDMA</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> 700)</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -203,7 +191,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Throughput RDMA (MB/s)</c:v>
+                  <c:v>Throughput RDMA (Mbit/s)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -311,67 +299,67 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>0.295072</c:v>
+                  <c:v>4.3473540000000002</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.3290040000000003</c:v>
+                  <c:v>16.246953999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8.6580089999999998</c:v>
+                  <c:v>141.15571199999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>17.316016999999999</c:v>
+                  <c:v>31.343357000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.44455600000000001</c:v>
+                  <c:v>548.17987200000005</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>60.836502000000003</c:v>
+                  <c:v>1122.3147739999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.7894489999999998</c:v>
+                  <c:v>610.54137800000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>212.97836899999999</c:v>
+                  <c:v>2884.5070420000002</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>77.882568000000006</c:v>
+                  <c:v>1699.5850620000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>6.7841529999999999</c:v>
+                  <c:v>62.619819999999997</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>14.570498000000001</c:v>
+                  <c:v>113.391616</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>60.965082000000002</c:v>
+                  <c:v>592.72122100000001</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3040.8314770000002</c:v>
+                  <c:v>30837.568229</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3585.1203500000001</c:v>
+                  <c:v>32381.046493999998</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3749.1990850000002</c:v>
+                  <c:v>32952.534190999999</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4015.1942159999999</c:v>
+                  <c:v>33236.215181</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>4097.5365760000004</c:v>
+                  <c:v>33419.470808999999</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4137.5043400000004</c:v>
+                  <c:v>33522.572146999999</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>4160.5535890000001</c:v>
+                  <c:v>33562.433283999999</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>4172.8057049999998</c:v>
+                  <c:v>33584.819544999998</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>4176.3124459999999</c:v>
+                  <c:v>33578.783334</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -557,8 +545,15 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Throughput (MB/s)</a:t>
+                  <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Throughput (Mbit/s)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -722,13 +717,8 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Performance Measurements - TCP (warm-up:</a:t>
+              <a:t>Performance Measurements - TCP</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> 500)</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -776,7 +766,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Throughput TCP (MB/s)</c:v>
+                  <c:v>Throughput TCP (Mbit/s)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -884,67 +874,67 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>0.295072</c:v>
+                  <c:v>8.2815729999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.7572999999999997E-2</c:v>
+                  <c:v>11.212334</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9.5658999999999994E-2</c:v>
+                  <c:v>0.74653000000000003</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.1349689999999999</c:v>
+                  <c:v>44.260027999999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>13.570823000000001</c:v>
+                  <c:v>94.885099999999994</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.77517499999999995</c:v>
+                  <c:v>6.0117890000000003</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>47.619047999999999</c:v>
+                  <c:v>300.46948400000002</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>79.355238999999997</c:v>
+                  <c:v>508.69349199999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>166.99282500000001</c:v>
+                  <c:v>833.536834</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>275.71351600000003</c:v>
+                  <c:v>1120.963328</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>350.44490100000002</c:v>
+                  <c:v>2520.6153850000001</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>346.35548799999998</c:v>
+                  <c:v>4187.0687449999996</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>556.52173900000003</c:v>
+                  <c:v>3792.5925929999999</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>786.406835</c:v>
+                  <c:v>5516.9627069999997</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1069.0330160000001</c:v>
+                  <c:v>7225.9771760000003</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1297.4342730000001</c:v>
+                  <c:v>8541.1182069999995</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1250.019074</c:v>
+                  <c:v>8877.0593119999994</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1308.887557</c:v>
+                  <c:v>9260.2575199999992</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1327.0560599999999</c:v>
+                  <c:v>9618.2867210000004</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1346.3269829999999</c:v>
+                  <c:v>9926.5714160000007</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1352.2318270000001</c:v>
+                  <c:v>10062.336864999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1131,7 +1121,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Throughput (MB/s)</a:t>
+                  <a:t>Throughput (Mbit/s)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -1344,7 +1334,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Throughput RDMA (MB/s)</c:v>
+                  <c:v>Throughput RDMA (Mbit/s)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1452,67 +1442,67 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>0.295072</c:v>
+                  <c:v>4.3473540000000002</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.3290040000000003</c:v>
+                  <c:v>16.246953999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8.6580089999999998</c:v>
+                  <c:v>141.15571199999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>17.316016999999999</c:v>
+                  <c:v>31.343357000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.44455600000000001</c:v>
+                  <c:v>548.17987200000005</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>60.836502000000003</c:v>
+                  <c:v>1122.3147739999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.7894489999999998</c:v>
+                  <c:v>610.54137800000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>212.97836899999999</c:v>
+                  <c:v>2884.5070420000002</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>77.882568000000006</c:v>
+                  <c:v>1699.5850620000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>6.7841529999999999</c:v>
+                  <c:v>62.619819999999997</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>14.570498000000001</c:v>
+                  <c:v>113.391616</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>60.965082000000002</c:v>
+                  <c:v>592.72122100000001</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3040.8314770000002</c:v>
+                  <c:v>30837.568229</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3585.1203500000001</c:v>
+                  <c:v>32381.046493999998</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3749.1990850000002</c:v>
+                  <c:v>32952.534190999999</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4015.1942159999999</c:v>
+                  <c:v>33236.215181</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>4097.5365760000004</c:v>
+                  <c:v>33419.470808999999</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4137.5043400000004</c:v>
+                  <c:v>33522.572146999999</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>4160.5535890000001</c:v>
+                  <c:v>33562.433283999999</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>4172.8057049999998</c:v>
+                  <c:v>33584.819544999998</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>4176.3124459999999</c:v>
+                  <c:v>33578.783334</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1533,7 +1523,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Throughput TCP (MB/s)</c:v>
+                  <c:v>Throughput TCP (Mbit/s)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1569,67 +1559,67 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>0.295072</c:v>
+                  <c:v>8.2815729999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.7572999999999997E-2</c:v>
+                  <c:v>11.212334</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9.5658999999999994E-2</c:v>
+                  <c:v>0.74653000000000003</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.1349689999999999</c:v>
+                  <c:v>44.260027999999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>13.570823000000001</c:v>
+                  <c:v>94.885099999999994</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.77517499999999995</c:v>
+                  <c:v>6.0117890000000003</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>47.619047999999999</c:v>
+                  <c:v>300.46948400000002</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>79.355238999999997</c:v>
+                  <c:v>508.69349199999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>166.99282500000001</c:v>
+                  <c:v>833.536834</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>275.71351600000003</c:v>
+                  <c:v>1120.963328</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>350.44490100000002</c:v>
+                  <c:v>2520.6153850000001</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>346.35548799999998</c:v>
+                  <c:v>4187.0687449999996</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>556.52173900000003</c:v>
+                  <c:v>3792.5925929999999</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>786.406835</c:v>
+                  <c:v>5516.9627069999997</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1069.0330160000001</c:v>
+                  <c:v>7225.9771760000003</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1297.4342730000001</c:v>
+                  <c:v>8541.1182069999995</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1250.019074</c:v>
+                  <c:v>8877.0593119999994</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1308.887557</c:v>
+                  <c:v>9260.2575199999992</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1327.0560599999999</c:v>
+                  <c:v>9618.2867210000004</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1346.3269829999999</c:v>
+                  <c:v>9926.5714160000007</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1352.2318270000001</c:v>
+                  <c:v>10062.336864999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1816,7 +1806,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Throughput (MB/s)</a:t>
+                  <a:t>Throughput (Mbit/s)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -3998,7 +3988,7 @@
   <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B22"/>
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4020,7 +4010,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="3">
-        <v>0.295072</v>
+        <v>4.3473540000000002</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -4028,7 +4018,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="3">
-        <v>4.3290040000000003</v>
+        <v>16.246953999999999</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -4036,7 +4026,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="3">
-        <v>8.6580089999999998</v>
+        <v>141.15571199999999</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -4044,7 +4034,7 @@
         <v>8</v>
       </c>
       <c r="B5" s="3">
-        <v>17.316016999999999</v>
+        <v>31.343357000000001</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -4052,7 +4042,7 @@
         <v>16</v>
       </c>
       <c r="B6" s="3">
-        <v>0.44455600000000001</v>
+        <v>548.17987200000005</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -4060,7 +4050,7 @@
         <v>32</v>
       </c>
       <c r="B7" s="3">
-        <v>60.836502000000003</v>
+        <v>1122.3147739999999</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -4068,7 +4058,7 @@
         <v>64</v>
       </c>
       <c r="B8" s="3">
-        <v>3.7894489999999998</v>
+        <v>610.54137800000001</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -4076,7 +4066,7 @@
         <v>128</v>
       </c>
       <c r="B9" s="3">
-        <v>212.97836899999999</v>
+        <v>2884.5070420000002</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -4084,7 +4074,7 @@
         <v>256</v>
       </c>
       <c r="B10" s="3">
-        <v>77.882568000000006</v>
+        <v>1699.5850620000001</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -4092,7 +4082,7 @@
         <v>512</v>
       </c>
       <c r="B11" s="3">
-        <v>6.7841529999999999</v>
+        <v>62.619819999999997</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -4100,7 +4090,7 @@
         <v>1024</v>
       </c>
       <c r="B12" s="3">
-        <v>14.570498000000001</v>
+        <v>113.391616</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -4108,7 +4098,7 @@
         <v>2048</v>
       </c>
       <c r="B13" s="3">
-        <v>60.965082000000002</v>
+        <v>592.72122100000001</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -4116,7 +4106,7 @@
         <v>4096</v>
       </c>
       <c r="B14" s="3">
-        <v>3040.8314770000002</v>
+        <v>30837.568229</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -4124,7 +4114,7 @@
         <v>8192</v>
       </c>
       <c r="B15" s="3">
-        <v>3585.1203500000001</v>
+        <v>32381.046493999998</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -4132,7 +4122,7 @@
         <v>16384</v>
       </c>
       <c r="B16" s="3">
-        <v>3749.1990850000002</v>
+        <v>32952.534190999999</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -4140,7 +4130,7 @@
         <v>32768</v>
       </c>
       <c r="B17" s="3">
-        <v>4015.1942159999999</v>
+        <v>33236.215181</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -4148,7 +4138,7 @@
         <v>65536</v>
       </c>
       <c r="B18" s="3">
-        <v>4097.5365760000004</v>
+        <v>33419.470808999999</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -4156,7 +4146,7 @@
         <v>131072</v>
       </c>
       <c r="B19" s="3">
-        <v>4137.5043400000004</v>
+        <v>33522.572146999999</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -4164,7 +4154,7 @@
         <v>262144</v>
       </c>
       <c r="B20" s="3">
-        <v>4160.5535890000001</v>
+        <v>33562.433283999999</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -4172,7 +4162,7 @@
         <v>524288</v>
       </c>
       <c r="B21" s="3">
-        <v>4172.8057049999998</v>
+        <v>33584.819544999998</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -4180,7 +4170,7 @@
         <v>1048576</v>
       </c>
       <c r="B22" s="3">
-        <v>4176.3124459999999</v>
+        <v>33578.783334</v>
       </c>
     </row>
   </sheetData>
@@ -4195,7 +4185,7 @@
   <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4217,7 +4207,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="3">
-        <v>0.295072</v>
+        <v>8.2815729999999999</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -4225,7 +4215,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="3">
-        <v>4.7572999999999997E-2</v>
+        <v>11.212334</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -4233,7 +4223,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="3">
-        <v>9.5658999999999994E-2</v>
+        <v>0.74653000000000003</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -4241,7 +4231,7 @@
         <v>8</v>
       </c>
       <c r="B5" s="3">
-        <v>6.1349689999999999</v>
+        <v>44.260027999999998</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -4249,7 +4239,7 @@
         <v>16</v>
       </c>
       <c r="B6" s="3">
-        <v>13.570823000000001</v>
+        <v>94.885099999999994</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -4257,7 +4247,7 @@
         <v>32</v>
       </c>
       <c r="B7" s="3">
-        <v>0.77517499999999995</v>
+        <v>6.0117890000000003</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -4265,7 +4255,7 @@
         <v>64</v>
       </c>
       <c r="B8" s="3">
-        <v>47.619047999999999</v>
+        <v>300.46948400000002</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -4273,7 +4263,7 @@
         <v>128</v>
       </c>
       <c r="B9" s="3">
-        <v>79.355238999999997</v>
+        <v>508.69349199999999</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -4281,7 +4271,7 @@
         <v>256</v>
       </c>
       <c r="B10" s="3">
-        <v>166.99282500000001</v>
+        <v>833.536834</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -4289,7 +4279,7 @@
         <v>512</v>
       </c>
       <c r="B11" s="3">
-        <v>275.71351600000003</v>
+        <v>1120.963328</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -4297,7 +4287,7 @@
         <v>1024</v>
       </c>
       <c r="B12" s="3">
-        <v>350.44490100000002</v>
+        <v>2520.6153850000001</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -4305,7 +4295,7 @@
         <v>2048</v>
       </c>
       <c r="B13" s="3">
-        <v>346.35548799999998</v>
+        <v>4187.0687449999996</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -4313,7 +4303,7 @@
         <v>4096</v>
       </c>
       <c r="B14" s="3">
-        <v>556.52173900000003</v>
+        <v>3792.5925929999999</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -4321,7 +4311,7 @@
         <v>8192</v>
       </c>
       <c r="B15" s="3">
-        <v>786.406835</v>
+        <v>5516.9627069999997</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -4329,7 +4319,7 @@
         <v>16384</v>
       </c>
       <c r="B16" s="3">
-        <v>1069.0330160000001</v>
+        <v>7225.9771760000003</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -4337,7 +4327,7 @@
         <v>32768</v>
       </c>
       <c r="B17" s="3">
-        <v>1297.4342730000001</v>
+        <v>8541.1182069999995</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -4345,7 +4335,7 @@
         <v>65536</v>
       </c>
       <c r="B18" s="3">
-        <v>1250.019074</v>
+        <v>8877.0593119999994</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -4353,7 +4343,7 @@
         <v>131072</v>
       </c>
       <c r="B19" s="3">
-        <v>1308.887557</v>
+        <v>9260.2575199999992</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -4361,7 +4351,7 @@
         <v>262144</v>
       </c>
       <c r="B20" s="3">
-        <v>1327.0560599999999</v>
+        <v>9618.2867210000004</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -4369,7 +4359,7 @@
         <v>524288</v>
       </c>
       <c r="B21" s="3">
-        <v>1346.3269829999999</v>
+        <v>9926.5714160000007</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -4377,7 +4367,7 @@
         <v>1048576</v>
       </c>
       <c r="B22" s="3">
-        <v>1352.2318270000001</v>
+        <v>10062.336864999999</v>
       </c>
     </row>
   </sheetData>
